--- a/OBASPA4491043.xlsx
+++ b/OBASPA4491043.xlsx
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OBASPA4491043.xlsx
+++ b/OBASPA4491043.xlsx
@@ -62,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2250,8 +2249,8 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2266,8 +2265,8 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2282,8 +2281,8 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
